--- a/Epam_Task7/Resources/Report3.xlsx
+++ b/Epam_Task7/Resources/Report3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task7\Task7\Epam_Task7\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{601A55B6-2F84-47CE-A175-4FC1467E544C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{812F2CC2-80AC-470B-8299-DB89FEDE7B0C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{6895E86A-727C-46AC-8B68-85BFC51EA496}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{54003F89-EA7F-4351-ADD2-61421A520D12}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>IP-32</t>
-  </si>
-  <si>
-    <t>Reita Match Sergeevna</t>
-  </si>
-  <si>
-    <t>IP-21</t>
-  </si>
-  <si>
-    <t>Artem Lukavtsov Gennadevich</t>
-  </si>
-  <si>
-    <t>Borisenko Ivan Sergeevich</t>
-  </si>
-  <si>
-    <t>IP-31</t>
-  </si>
-  <si>
-    <t>Palatkin Daniil Aleksandrovich</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>EducationName</t>
+  </si>
+  <si>
+    <t>Average Mark</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>SUBD</t>
+  </si>
+  <si>
+    <t>TVIMS</t>
   </si>
 </sst>
 </file>
@@ -403,51 +397,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4DD7E3-0B31-466C-90AB-441F1D9BAD4E}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED4DEA8-4888-4C68-8F84-6B516C38A22F}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2019</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Epam_Task7/Resources/Report3.xlsx
+++ b/Epam_Task7/Resources/Report3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task7\Task7\Epam_Task7\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{812F2CC2-80AC-470B-8299-DB89FEDE7B0C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC47ABC-DCDD-4E71-AA44-C79561635362}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{54003F89-EA7F-4351-ADD2-61421A520D12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{A5D14177-D9A5-462C-8DD7-40B996D05D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED4DEA8-4888-4C68-8F84-6B516C38A22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA46DF0-AB12-4B94-A282-B43FDF377E88}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
